--- a/customers.xlsx
+++ b/customers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonidas Petrou\Documents\UiPath\project2_rpacrm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\RPA-DataCapturingFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86223B16-5327-465F-ADC2-EA58D614E75E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC39ACB-02F3-4F81-BF29-ED08689ED5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="5568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3349,24 +3349,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3392,13 +3392,13 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3424,13 +3424,13 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3456,13 +3456,13 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3488,13 +3488,13 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3520,13 +3520,13 @@
         <v>44</v>
       </c>
       <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
         <v>45</v>
       </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3552,13 +3552,13 @@
         <v>53</v>
       </c>
       <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
         <v>54</v>
       </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -3584,13 +3584,13 @@
         <v>62</v>
       </c>
       <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
         <v>63</v>
       </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -3616,13 +3616,13 @@
         <v>71</v>
       </c>
       <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
         <v>72</v>
       </c>
-      <c r="J8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -3648,13 +3648,13 @@
         <v>80</v>
       </c>
       <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
         <v>81</v>
       </c>
-      <c r="J9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -3680,13 +3680,13 @@
         <v>89</v>
       </c>
       <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
         <v>90</v>
       </c>
-      <c r="J10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -3712,13 +3712,13 @@
         <v>98</v>
       </c>
       <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
         <v>99</v>
       </c>
-      <c r="J11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -3744,13 +3744,13 @@
         <v>107</v>
       </c>
       <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
         <v>108</v>
       </c>
-      <c r="J12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -3776,13 +3776,13 @@
         <v>116</v>
       </c>
       <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
         <v>117</v>
       </c>
-      <c r="J13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -3808,13 +3808,13 @@
         <v>125</v>
       </c>
       <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
         <v>126</v>
       </c>
-      <c r="J14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -3840,13 +3840,13 @@
         <v>134</v>
       </c>
       <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
         <v>135</v>
       </c>
-      <c r="J15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -3872,13 +3872,13 @@
         <v>142</v>
       </c>
       <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
         <v>143</v>
       </c>
-      <c r="J16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>145</v>
       </c>
@@ -3904,13 +3904,13 @@
         <v>151</v>
       </c>
       <c r="I17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" t="s">
         <v>152</v>
       </c>
-      <c r="J17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>154</v>
       </c>
@@ -3936,13 +3936,13 @@
         <v>160</v>
       </c>
       <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
         <v>161</v>
       </c>
-      <c r="J18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>163</v>
       </c>
@@ -3968,13 +3968,13 @@
         <v>168</v>
       </c>
       <c r="I19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="s">
         <v>169</v>
       </c>
-      <c r="J19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -4000,13 +4000,13 @@
         <v>177</v>
       </c>
       <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
         <v>178</v>
       </c>
-      <c r="J20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>180</v>
       </c>
@@ -4032,13 +4032,13 @@
         <v>185</v>
       </c>
       <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
         <v>186</v>
       </c>
-      <c r="J21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>188</v>
       </c>
@@ -4064,13 +4064,13 @@
         <v>194</v>
       </c>
       <c r="I22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J22" t="s">
         <v>195</v>
       </c>
-      <c r="J22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>197</v>
       </c>
@@ -4096,13 +4096,13 @@
         <v>202</v>
       </c>
       <c r="I23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" t="s">
         <v>203</v>
       </c>
-      <c r="J23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>205</v>
       </c>
@@ -4128,13 +4128,13 @@
         <v>211</v>
       </c>
       <c r="I24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" t="s">
         <v>212</v>
       </c>
-      <c r="J24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>214</v>
       </c>
@@ -4160,13 +4160,13 @@
         <v>218</v>
       </c>
       <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
         <v>219</v>
       </c>
-      <c r="J25" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>221</v>
       </c>
@@ -4192,13 +4192,13 @@
         <v>227</v>
       </c>
       <c r="I26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" t="s">
         <v>228</v>
       </c>
-      <c r="J26" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>230</v>
       </c>
@@ -4224,13 +4224,13 @@
         <v>235</v>
       </c>
       <c r="I27" t="s">
+        <v>237</v>
+      </c>
+      <c r="J27" t="s">
         <v>236</v>
       </c>
-      <c r="J27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>238</v>
       </c>
@@ -4256,13 +4256,13 @@
         <v>244</v>
       </c>
       <c r="I28" t="s">
+        <v>246</v>
+      </c>
+      <c r="J28" t="s">
         <v>245</v>
       </c>
-      <c r="J28" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>247</v>
       </c>
@@ -4288,13 +4288,13 @@
         <v>251</v>
       </c>
       <c r="I29" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" t="s">
         <v>252</v>
       </c>
-      <c r="J29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>254</v>
       </c>
@@ -4320,13 +4320,13 @@
         <v>260</v>
       </c>
       <c r="I30" t="s">
+        <v>262</v>
+      </c>
+      <c r="J30" t="s">
         <v>261</v>
       </c>
-      <c r="J30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>263</v>
       </c>
@@ -4352,13 +4352,13 @@
         <v>267</v>
       </c>
       <c r="I31" t="s">
+        <v>269</v>
+      </c>
+      <c r="J31" t="s">
         <v>268</v>
       </c>
-      <c r="J31" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>270</v>
       </c>
@@ -4384,13 +4384,13 @@
         <v>275</v>
       </c>
       <c r="I32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" t="s">
         <v>276</v>
       </c>
-      <c r="J32" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>278</v>
       </c>
@@ -4416,13 +4416,13 @@
         <v>282</v>
       </c>
       <c r="I33" t="s">
+        <v>284</v>
+      </c>
+      <c r="J33" t="s">
         <v>283</v>
       </c>
-      <c r="J33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>285</v>
       </c>
@@ -4448,13 +4448,13 @@
         <v>290</v>
       </c>
       <c r="I34" t="s">
+        <v>292</v>
+      </c>
+      <c r="J34" t="s">
         <v>291</v>
       </c>
-      <c r="J34" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>293</v>
       </c>
@@ -4480,13 +4480,13 @@
         <v>298</v>
       </c>
       <c r="I35" t="s">
+        <v>300</v>
+      </c>
+      <c r="J35" t="s">
         <v>299</v>
       </c>
-      <c r="J35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>301</v>
       </c>
@@ -4512,13 +4512,13 @@
         <v>306</v>
       </c>
       <c r="I36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J36" t="s">
         <v>307</v>
       </c>
-      <c r="J36" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>309</v>
       </c>
@@ -4544,13 +4544,13 @@
         <v>314</v>
       </c>
       <c r="I37" t="s">
+        <v>316</v>
+      </c>
+      <c r="J37" t="s">
         <v>315</v>
       </c>
-      <c r="J37" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>317</v>
       </c>
@@ -4576,13 +4576,13 @@
         <v>323</v>
       </c>
       <c r="I38" t="s">
+        <v>325</v>
+      </c>
+      <c r="J38" t="s">
         <v>324</v>
       </c>
-      <c r="J38" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>326</v>
       </c>
@@ -4608,13 +4608,13 @@
         <v>331</v>
       </c>
       <c r="I39" t="s">
+        <v>333</v>
+      </c>
+      <c r="J39" t="s">
         <v>332</v>
       </c>
-      <c r="J39" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>334</v>
       </c>
@@ -4640,13 +4640,13 @@
         <v>340</v>
       </c>
       <c r="I40" t="s">
+        <v>342</v>
+      </c>
+      <c r="J40" t="s">
         <v>341</v>
       </c>
-      <c r="J40" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>343</v>
       </c>
@@ -4672,13 +4672,13 @@
         <v>349</v>
       </c>
       <c r="I41" t="s">
+        <v>351</v>
+      </c>
+      <c r="J41" t="s">
         <v>350</v>
       </c>
-      <c r="J41" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>352</v>
       </c>
@@ -4704,13 +4704,13 @@
         <v>357</v>
       </c>
       <c r="I42" t="s">
+        <v>359</v>
+      </c>
+      <c r="J42" t="s">
         <v>358</v>
       </c>
-      <c r="J42" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>360</v>
       </c>
@@ -4736,13 +4736,13 @@
         <v>365</v>
       </c>
       <c r="I43" t="s">
+        <v>367</v>
+      </c>
+      <c r="J43" t="s">
         <v>366</v>
       </c>
-      <c r="J43" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>368</v>
       </c>
@@ -4768,13 +4768,13 @@
         <v>373</v>
       </c>
       <c r="I44" t="s">
+        <v>375</v>
+      </c>
+      <c r="J44" t="s">
         <v>374</v>
       </c>
-      <c r="J44" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>376</v>
       </c>
@@ -4800,13 +4800,13 @@
         <v>381</v>
       </c>
       <c r="I45" t="s">
+        <v>383</v>
+      </c>
+      <c r="J45" t="s">
         <v>382</v>
       </c>
-      <c r="J45" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>384</v>
       </c>
@@ -4832,13 +4832,13 @@
         <v>390</v>
       </c>
       <c r="I46" t="s">
+        <v>392</v>
+      </c>
+      <c r="J46" t="s">
         <v>391</v>
       </c>
-      <c r="J46" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>393</v>
       </c>
@@ -4864,13 +4864,13 @@
         <v>399</v>
       </c>
       <c r="I47" t="s">
+        <v>401</v>
+      </c>
+      <c r="J47" t="s">
         <v>400</v>
       </c>
-      <c r="J47" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>402</v>
       </c>
@@ -4896,13 +4896,13 @@
         <v>406</v>
       </c>
       <c r="I48" t="s">
+        <v>408</v>
+      </c>
+      <c r="J48" t="s">
         <v>407</v>
       </c>
-      <c r="J48" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>409</v>
       </c>
@@ -4928,13 +4928,13 @@
         <v>414</v>
       </c>
       <c r="I49" t="s">
+        <v>416</v>
+      </c>
+      <c r="J49" t="s">
         <v>415</v>
       </c>
-      <c r="J49" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>417</v>
       </c>
@@ -4960,13 +4960,13 @@
         <v>423</v>
       </c>
       <c r="I50" t="s">
+        <v>425</v>
+      </c>
+      <c r="J50" t="s">
         <v>424</v>
       </c>
-      <c r="J50" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>426</v>
       </c>
@@ -4992,13 +4992,13 @@
         <v>431</v>
       </c>
       <c r="I51" t="s">
+        <v>433</v>
+      </c>
+      <c r="J51" t="s">
         <v>432</v>
       </c>
-      <c r="J51" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>434</v>
       </c>
@@ -5024,13 +5024,13 @@
         <v>438</v>
       </c>
       <c r="I52" t="s">
+        <v>440</v>
+      </c>
+      <c r="J52" t="s">
         <v>439</v>
       </c>
-      <c r="J52" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>441</v>
       </c>
@@ -5056,13 +5056,13 @@
         <v>447</v>
       </c>
       <c r="I53" t="s">
+        <v>449</v>
+      </c>
+      <c r="J53" t="s">
         <v>448</v>
       </c>
-      <c r="J53" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>450</v>
       </c>
@@ -5088,13 +5088,13 @@
         <v>455</v>
       </c>
       <c r="I54" t="s">
+        <v>457</v>
+      </c>
+      <c r="J54" t="s">
         <v>456</v>
       </c>
-      <c r="J54" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>458</v>
       </c>
@@ -5120,13 +5120,13 @@
         <v>463</v>
       </c>
       <c r="I55" t="s">
+        <v>465</v>
+      </c>
+      <c r="J55" t="s">
         <v>464</v>
       </c>
-      <c r="J55" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -5152,13 +5152,13 @@
         <v>471</v>
       </c>
       <c r="I56" t="s">
+        <v>473</v>
+      </c>
+      <c r="J56" t="s">
         <v>472</v>
       </c>
-      <c r="J56" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>474</v>
       </c>
@@ -5184,13 +5184,13 @@
         <v>479</v>
       </c>
       <c r="I57" t="s">
+        <v>481</v>
+      </c>
+      <c r="J57" t="s">
         <v>480</v>
       </c>
-      <c r="J57" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>482</v>
       </c>
@@ -5216,13 +5216,13 @@
         <v>486</v>
       </c>
       <c r="I58" t="s">
+        <v>488</v>
+      </c>
+      <c r="J58" t="s">
         <v>487</v>
       </c>
-      <c r="J58" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>489</v>
       </c>
@@ -5248,13 +5248,13 @@
         <v>494</v>
       </c>
       <c r="I59" t="s">
+        <v>496</v>
+      </c>
+      <c r="J59" t="s">
         <v>495</v>
       </c>
-      <c r="J59" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>497</v>
       </c>
@@ -5280,13 +5280,13 @@
         <v>503</v>
       </c>
       <c r="I60" t="s">
+        <v>505</v>
+      </c>
+      <c r="J60" t="s">
         <v>504</v>
       </c>
-      <c r="J60" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>506</v>
       </c>
@@ -5312,13 +5312,13 @@
         <v>511</v>
       </c>
       <c r="I61" t="s">
+        <v>513</v>
+      </c>
+      <c r="J61" t="s">
         <v>512</v>
       </c>
-      <c r="J61" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>514</v>
       </c>
@@ -5344,13 +5344,13 @@
         <v>518</v>
       </c>
       <c r="I62" t="s">
+        <v>520</v>
+      </c>
+      <c r="J62" t="s">
         <v>519</v>
       </c>
-      <c r="J62" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>521</v>
       </c>
@@ -5376,13 +5376,13 @@
         <v>525</v>
       </c>
       <c r="I63" t="s">
+        <v>527</v>
+      </c>
+      <c r="J63" t="s">
         <v>526</v>
       </c>
-      <c r="J63" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>528</v>
       </c>
@@ -5408,13 +5408,13 @@
         <v>532</v>
       </c>
       <c r="I64" t="s">
+        <v>534</v>
+      </c>
+      <c r="J64" t="s">
         <v>533</v>
       </c>
-      <c r="J64" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>535</v>
       </c>
@@ -5440,13 +5440,13 @@
         <v>540</v>
       </c>
       <c r="I65" t="s">
+        <v>542</v>
+      </c>
+      <c r="J65" t="s">
         <v>541</v>
       </c>
-      <c r="J65" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>543</v>
       </c>
@@ -5472,13 +5472,13 @@
         <v>547</v>
       </c>
       <c r="I66" t="s">
+        <v>549</v>
+      </c>
+      <c r="J66" t="s">
         <v>548</v>
       </c>
-      <c r="J66" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>550</v>
       </c>
@@ -5504,13 +5504,13 @@
         <v>555</v>
       </c>
       <c r="I67" t="s">
+        <v>557</v>
+      </c>
+      <c r="J67" t="s">
         <v>556</v>
       </c>
-      <c r="J67" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>558</v>
       </c>
@@ -5536,13 +5536,13 @@
         <v>563</v>
       </c>
       <c r="I68" t="s">
+        <v>565</v>
+      </c>
+      <c r="J68" t="s">
         <v>564</v>
       </c>
-      <c r="J68" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>566</v>
       </c>
@@ -5568,13 +5568,13 @@
         <v>571</v>
       </c>
       <c r="I69" t="s">
+        <v>573</v>
+      </c>
+      <c r="J69" t="s">
         <v>572</v>
       </c>
-      <c r="J69" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>574</v>
       </c>
@@ -5600,13 +5600,13 @@
         <v>580</v>
       </c>
       <c r="I70" t="s">
+        <v>582</v>
+      </c>
+      <c r="J70" t="s">
         <v>581</v>
       </c>
-      <c r="J70" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>583</v>
       </c>
@@ -5632,13 +5632,13 @@
         <v>589</v>
       </c>
       <c r="I71" t="s">
+        <v>591</v>
+      </c>
+      <c r="J71" t="s">
         <v>590</v>
       </c>
-      <c r="J71" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>592</v>
       </c>
@@ -5664,13 +5664,13 @@
         <v>597</v>
       </c>
       <c r="I72" t="s">
+        <v>599</v>
+      </c>
+      <c r="J72" t="s">
         <v>598</v>
       </c>
-      <c r="J72" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>600</v>
       </c>
@@ -5696,13 +5696,13 @@
         <v>605</v>
       </c>
       <c r="I73" t="s">
+        <v>607</v>
+      </c>
+      <c r="J73" t="s">
         <v>606</v>
       </c>
-      <c r="J73" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>608</v>
       </c>
@@ -5728,13 +5728,13 @@
         <v>613</v>
       </c>
       <c r="I74" t="s">
+        <v>615</v>
+      </c>
+      <c r="J74" t="s">
         <v>614</v>
       </c>
-      <c r="J74" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>616</v>
       </c>
@@ -5760,13 +5760,13 @@
         <v>621</v>
       </c>
       <c r="I75" t="s">
+        <v>623</v>
+      </c>
+      <c r="J75" t="s">
         <v>622</v>
       </c>
-      <c r="J75" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>624</v>
       </c>
@@ -5792,13 +5792,13 @@
         <v>629</v>
       </c>
       <c r="I76" t="s">
+        <v>631</v>
+      </c>
+      <c r="J76" t="s">
         <v>630</v>
       </c>
-      <c r="J76" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>632</v>
       </c>
@@ -5824,13 +5824,13 @@
         <v>637</v>
       </c>
       <c r="I77" t="s">
+        <v>639</v>
+      </c>
+      <c r="J77" t="s">
         <v>638</v>
       </c>
-      <c r="J77" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>640</v>
       </c>
@@ -5856,13 +5856,13 @@
         <v>645</v>
       </c>
       <c r="I78" t="s">
+        <v>647</v>
+      </c>
+      <c r="J78" t="s">
         <v>646</v>
       </c>
-      <c r="J78" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>648</v>
       </c>
@@ -5888,13 +5888,13 @@
         <v>652</v>
       </c>
       <c r="I79" t="s">
+        <v>654</v>
+      </c>
+      <c r="J79" t="s">
         <v>653</v>
       </c>
-      <c r="J79" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>655</v>
       </c>
@@ -5920,13 +5920,13 @@
         <v>660</v>
       </c>
       <c r="I80" t="s">
+        <v>662</v>
+      </c>
+      <c r="J80" t="s">
         <v>661</v>
       </c>
-      <c r="J80" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>663</v>
       </c>
@@ -5952,13 +5952,13 @@
         <v>669</v>
       </c>
       <c r="I81" t="s">
+        <v>671</v>
+      </c>
+      <c r="J81" t="s">
         <v>670</v>
       </c>
-      <c r="J81" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>672</v>
       </c>
@@ -5984,13 +5984,13 @@
         <v>676</v>
       </c>
       <c r="I82" t="s">
+        <v>678</v>
+      </c>
+      <c r="J82" t="s">
         <v>677</v>
       </c>
-      <c r="J82" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>679</v>
       </c>
@@ -6016,13 +6016,13 @@
         <v>684</v>
       </c>
       <c r="I83" t="s">
+        <v>686</v>
+      </c>
+      <c r="J83" t="s">
         <v>685</v>
       </c>
-      <c r="J83" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>687</v>
       </c>
@@ -6048,13 +6048,13 @@
         <v>692</v>
       </c>
       <c r="I84" t="s">
+        <v>694</v>
+      </c>
+      <c r="J84" t="s">
         <v>693</v>
       </c>
-      <c r="J84" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>695</v>
       </c>
@@ -6080,13 +6080,13 @@
         <v>701</v>
       </c>
       <c r="I85" t="s">
+        <v>703</v>
+      </c>
+      <c r="J85" t="s">
         <v>702</v>
       </c>
-      <c r="J85" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>704</v>
       </c>
@@ -6112,13 +6112,13 @@
         <v>709</v>
       </c>
       <c r="I86" t="s">
+        <v>711</v>
+      </c>
+      <c r="J86" t="s">
         <v>710</v>
       </c>
-      <c r="J86" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>712</v>
       </c>
@@ -6144,13 +6144,13 @@
         <v>716</v>
       </c>
       <c r="I87" t="s">
+        <v>718</v>
+      </c>
+      <c r="J87" t="s">
         <v>717</v>
       </c>
-      <c r="J87" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>719</v>
       </c>
@@ -6176,13 +6176,13 @@
         <v>724</v>
       </c>
       <c r="I88" t="s">
+        <v>726</v>
+      </c>
+      <c r="J88" t="s">
         <v>725</v>
       </c>
-      <c r="J88" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>727</v>
       </c>
@@ -6208,13 +6208,13 @@
         <v>732</v>
       </c>
       <c r="I89" t="s">
+        <v>734</v>
+      </c>
+      <c r="J89" t="s">
         <v>733</v>
       </c>
-      <c r="J89" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>735</v>
       </c>
@@ -6240,13 +6240,13 @@
         <v>740</v>
       </c>
       <c r="I90" t="s">
+        <v>742</v>
+      </c>
+      <c r="J90" t="s">
         <v>741</v>
       </c>
-      <c r="J90" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>743</v>
       </c>
@@ -6272,13 +6272,13 @@
         <v>748</v>
       </c>
       <c r="I91" t="s">
+        <v>750</v>
+      </c>
+      <c r="J91" t="s">
         <v>749</v>
       </c>
-      <c r="J91" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>751</v>
       </c>
@@ -6304,13 +6304,13 @@
         <v>756</v>
       </c>
       <c r="I92" t="s">
+        <v>758</v>
+      </c>
+      <c r="J92" t="s">
         <v>757</v>
       </c>
-      <c r="J92" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>759</v>
       </c>
@@ -6336,13 +6336,13 @@
         <v>-5208</v>
       </c>
       <c r="I93" t="s">
+        <v>765</v>
+      </c>
+      <c r="J93" t="s">
         <v>764</v>
       </c>
-      <c r="J93" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>766</v>
       </c>
@@ -6368,13 +6368,13 @@
         <v>771</v>
       </c>
       <c r="I94" t="s">
+        <v>773</v>
+      </c>
+      <c r="J94" t="s">
         <v>772</v>
       </c>
-      <c r="J94" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>774</v>
       </c>
@@ -6400,13 +6400,13 @@
         <v>780</v>
       </c>
       <c r="I95" t="s">
+        <v>782</v>
+      </c>
+      <c r="J95" t="s">
         <v>781</v>
       </c>
-      <c r="J95" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>783</v>
       </c>
@@ -6432,13 +6432,13 @@
         <v>787</v>
       </c>
       <c r="I96" t="s">
+        <v>789</v>
+      </c>
+      <c r="J96" t="s">
         <v>788</v>
       </c>
-      <c r="J96" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>790</v>
       </c>
@@ -6464,13 +6464,13 @@
         <v>795</v>
       </c>
       <c r="I97" t="s">
+        <v>797</v>
+      </c>
+      <c r="J97" t="s">
         <v>796</v>
       </c>
-      <c r="J97" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>798</v>
       </c>
@@ -6496,13 +6496,13 @@
         <v>802</v>
       </c>
       <c r="I98" t="s">
+        <v>804</v>
+      </c>
+      <c r="J98" t="s">
         <v>803</v>
       </c>
-      <c r="J98" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>805</v>
       </c>
@@ -6528,13 +6528,13 @@
         <v>810</v>
       </c>
       <c r="I99" t="s">
+        <v>812</v>
+      </c>
+      <c r="J99" t="s">
         <v>811</v>
       </c>
-      <c r="J99" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>813</v>
       </c>
@@ -6560,13 +6560,13 @@
         <v>818</v>
       </c>
       <c r="I100" t="s">
+        <v>820</v>
+      </c>
+      <c r="J100" t="s">
         <v>819</v>
       </c>
-      <c r="J100" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>821</v>
       </c>
@@ -6592,10 +6592,10 @@
         <v>826</v>
       </c>
       <c r="I101" t="s">
+        <v>828</v>
+      </c>
+      <c r="J101" t="s">
         <v>827</v>
-      </c>
-      <c r="J101" t="s">
-        <v>828</v>
       </c>
     </row>
   </sheetData>
